--- a/Euro 2020/teams.xlsx
+++ b/Euro 2020/teams.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admins\Desktop\Euro 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoang\Documents\AndroidApp\Euro2020\Euro 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2857287F-9E10-4D0D-AAED-C444BEB17835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C5FF6205-FC9E-41FD-B92B-8DF8A11E3892}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>group</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -126,12 +122,6 @@
     <t>Portugal</t>
   </si>
   <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>played</t>
-  </si>
-  <si>
     <t>won</t>
   </si>
   <si>
@@ -147,16 +137,16 @@
     <t>against</t>
   </si>
   <si>
-    <t>goaldifference</t>
-  </si>
-  <si>
     <t>points</t>
+  </si>
+  <si>
+    <t>grouptable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -504,72 +494,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D739B2-F8C8-41EC-8FB4-CB7A1988DEA0}">
-  <dimension ref="A1:L25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -586,28 +566,19 @@
       <c r="I2" s="1">
         <v>0</v>
       </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -624,28 +595,19 @@
       <c r="I3" s="1">
         <v>0</v>
       </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -662,28 +624,19 @@
       <c r="I4" s="1">
         <v>0</v>
       </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -700,28 +653,19 @@
       <c r="I5" s="1">
         <v>0</v>
       </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -738,28 +682,19 @@
       <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -776,28 +711,19 @@
       <c r="I7" s="1">
         <v>0</v>
       </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -814,28 +740,19 @@
       <c r="I8" s="1">
         <v>0</v>
       </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -852,28 +769,19 @@
       <c r="I9" s="1">
         <v>0</v>
       </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -890,28 +798,19 @@
       <c r="I10" s="1">
         <v>0</v>
       </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -928,28 +827,19 @@
       <c r="I11" s="1">
         <v>0</v>
       </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -966,28 +856,19 @@
       <c r="I12" s="1">
         <v>0</v>
       </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -1004,28 +885,19 @@
       <c r="I13" s="1">
         <v>0</v>
       </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -1042,28 +914,19 @@
       <c r="I14" s="1">
         <v>0</v>
       </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -1080,28 +943,19 @@
       <c r="I15" s="1">
         <v>0</v>
       </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -1118,28 +972,19 @@
       <c r="I16" s="1">
         <v>0</v>
       </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -1156,28 +1001,19 @@
       <c r="I17" s="1">
         <v>0</v>
       </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -1194,28 +1030,19 @@
       <c r="I18" s="1">
         <v>0</v>
       </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -1232,28 +1059,19 @@
       <c r="I19" s="1">
         <v>0</v>
       </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0</v>
-      </c>
-      <c r="L19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -1270,28 +1088,19 @@
       <c r="I20" s="1">
         <v>0</v>
       </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -1308,28 +1117,19 @@
       <c r="I21" s="1">
         <v>0</v>
       </c>
-      <c r="J21" s="1">
-        <v>0</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -1346,28 +1146,19 @@
       <c r="I22" s="1">
         <v>0</v>
       </c>
-      <c r="J22" s="1">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -1384,28 +1175,19 @@
       <c r="I23" s="1">
         <v>0</v>
       </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -1422,28 +1204,19 @@
       <c r="I24" s="1">
         <v>0</v>
       </c>
-      <c r="J24" s="1">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0</v>
-      </c>
-      <c r="L24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
@@ -1458,15 +1231,6 @@
         <v>0</v>
       </c>
       <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0</v>
-      </c>
-      <c r="L25" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Euro 2020/teams.xlsx
+++ b/Euro 2020/teams.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoang\Documents\AndroidApp\Euro2020\Euro 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AndroidApp\Euro2020\Euro 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1474B96D-1C0A-42EB-8D3B-E390874F93F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -131,9 +132,6 @@
     <t>lost</t>
   </si>
   <si>
-    <t>for</t>
-  </si>
-  <si>
     <t>against</t>
   </si>
   <si>
@@ -141,12 +139,18 @@
   </si>
   <si>
     <t>grouptable</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>forward</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -494,12 +498,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -509,12 +511,12 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -529,16 +531,19 @@
         <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -566,8 +571,11 @@
       <c r="I2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -595,8 +603,11 @@
       <c r="I3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -624,8 +635,11 @@
       <c r="I4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -653,8 +667,11 @@
       <c r="I5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -682,8 +699,11 @@
       <c r="I6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -711,8 +731,11 @@
       <c r="I7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -740,8 +763,11 @@
       <c r="I8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -769,8 +795,11 @@
       <c r="I9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -798,8 +827,11 @@
       <c r="I10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -827,8 +859,11 @@
       <c r="I11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -856,8 +891,11 @@
       <c r="I12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -885,8 +923,11 @@
       <c r="I13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -914,8 +955,11 @@
       <c r="I14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -943,8 +987,11 @@
       <c r="I15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -972,8 +1019,11 @@
       <c r="I16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1001,8 +1051,11 @@
       <c r="I17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1030,8 +1083,11 @@
       <c r="I18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1059,8 +1115,11 @@
       <c r="I19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1088,8 +1147,11 @@
       <c r="I20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1117,8 +1179,11 @@
       <c r="I21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1146,8 +1211,11 @@
       <c r="I22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1175,8 +1243,11 @@
       <c r="I23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1204,8 +1275,11 @@
       <c r="I24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1232,6 +1306,9 @@
       </c>
       <c r="I25" s="1">
         <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
